--- a/Code/Phones/distinctive_features.xlsx
+++ b/Code/Phones/distinctive_features.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phgeorgis/Documents/School/MSc/Saarland_University/Courses/Thesis/Code/Distance_Measures/Phones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phgeorgis/Documents/School/MSc/Saarland_University/Courses/Thesis/Code/Phones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3001BC6A-6C5D-9B43-929D-109BEE8892B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275D3169-588F-0E4A-97AB-4ED42DBB0726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
   <si>
     <t>Feature</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>Features in Node</t>
+  </si>
+  <si>
+    <t>tongue position</t>
+  </si>
+  <si>
+    <t>prosody</t>
   </si>
 </sst>
 </file>
@@ -552,7 +558,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -593,73 +599,73 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D2">
         <f>COUNTIF($B$2:$B$38,B2)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <f>COUNTIF($C$2:$C$38,C2)</f>
         <v>2</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <f>(LOG(IF(B2=C2,D2,D2+E2)))/(F2*F2)</f>
-        <v>7.8454531568956626E-2</v>
+        <v>8.6461250042627072E-2</v>
       </c>
       <c r="H2">
         <f>G2/SUM($G$2:$G$38)</f>
-        <v>8.770378234581171E-3</v>
+        <v>9.7906672907606962E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D3">
         <f>COUNTIF($B$2:$B$38,B3)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <f>COUNTIF($C$2:$C$38,C3)</f>
         <v>2</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <f>(LOG(IF(B3=C3,D3,D3+E3)))/(F3*F3)</f>
-        <v>7.8454531568956626E-2</v>
+        <v>8.6461250042627072E-2</v>
       </c>
       <c r="H3">
         <f>G3/SUM($G$2:$G$38)</f>
-        <v>8.770378234581171E-3</v>
+        <v>9.7906672907606962E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <f>COUNTIF($B$2:$B$38,B4)</f>
@@ -669,7 +675,7 @@
         <f>COUNTIF($C$2:$C$38,C4)</f>
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>3</v>
       </c>
       <c r="G4">
@@ -678,18 +684,18 @@
       </c>
       <c r="H4">
         <f>G4/SUM($G$2:$G$38)</f>
-        <v>9.665443797112476E-3</v>
+        <v>9.7906672907606962E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <f>COUNTIF($B$2:$B$38,B5)</f>
@@ -699,7 +705,7 @@
         <f>COUNTIF($C$2:$C$38,C5)</f>
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>3</v>
       </c>
       <c r="G5">
@@ -708,7 +714,7 @@
       </c>
       <c r="H5">
         <f>G5/SUM($G$2:$G$38)</f>
-        <v>9.665443797112476E-3</v>
+        <v>9.7906672907606962E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -723,7 +729,7 @@
       </c>
       <c r="D6">
         <f>COUNTIF($B$2:$B$38,B6)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <f>COUNTIF($C$2:$C$38,C6)</f>
@@ -734,11 +740,11 @@
       </c>
       <c r="G6">
         <f>(LOG(IF(B6=C6,D6,D6+E6)))/(F6*F6)</f>
-        <v>9.3899782223806308E-2</v>
+        <v>0.10034333188799373</v>
       </c>
       <c r="H6">
         <f>G6/SUM($G$2:$G$38)</f>
-        <v>1.0496992203997109E-2</v>
+        <v>1.1362641378390536E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -753,7 +759,7 @@
       </c>
       <c r="D7">
         <f>COUNTIF($B$2:$B$38,B7)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <f>COUNTIF($C$2:$C$38,C7)</f>
@@ -764,11 +770,11 @@
       </c>
       <c r="G7">
         <f>(LOG(IF(B7=C7,D7,D7+E7)))/(F7*F7)</f>
-        <v>0.10034333188799373</v>
+        <v>0.10602694549325832</v>
       </c>
       <c r="H7">
         <f>G7/SUM($G$2:$G$38)</f>
-        <v>1.1217312198241946E-2</v>
+        <v>1.2006240329261033E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -783,7 +789,7 @@
       </c>
       <c r="D8">
         <f>COUNTIF($B$2:$B$38,B8)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <f>COUNTIF($C$2:$C$38,C8)</f>
@@ -794,11 +800,11 @@
       </c>
       <c r="G8">
         <f>(LOG(IF(B8=C8,D8,D8+E8)))/(F8*F8)</f>
-        <v>0.10034333188799373</v>
+        <v>0.10602694549325832</v>
       </c>
       <c r="H8">
         <f>G8/SUM($G$2:$G$38)</f>
-        <v>1.1217312198241946E-2</v>
+        <v>1.2006240329261033E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -813,7 +819,7 @@
       </c>
       <c r="D9">
         <f>COUNTIF($B$2:$B$38,B9)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <f>COUNTIF($C$2:$C$38,C9)</f>
@@ -824,11 +830,11 @@
       </c>
       <c r="G9">
         <f>(LOG(IF(B9=C9,D9,D9+E9)))/(F9*F9)</f>
-        <v>0.10602694549325832</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H9">
         <f>G9/SUM($G$2:$G$38)</f>
-        <v>1.1852679462063656E-2</v>
+        <v>1.2581959209001728E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -843,7 +849,7 @@
       </c>
       <c r="D10">
         <f>COUNTIF($B$2:$B$38,B10)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <f>COUNTIF($C$2:$C$38,C10)</f>
@@ -854,11 +860,11 @@
       </c>
       <c r="G10">
         <f>(LOG(IF(B10=C10,D10,D10+E10)))/(F10*F10)</f>
-        <v>0.10602694549325832</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H10" s="3">
         <f>G10/SUM($G$2:$G$38)</f>
-        <v>1.1852679462063656E-2</v>
+        <v>1.2581959209001728E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -873,7 +879,7 @@
       </c>
       <c r="D11">
         <f>COUNTIF($B$2:$B$38,B11)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <f>COUNTIF($C$2:$C$38,C11)</f>
@@ -884,11 +890,11 @@
       </c>
       <c r="G11">
         <f>(LOG(IF(B11=C11,D11,D11+E11)))/(F11*F11)</f>
-        <v>0.10602694549325832</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H11">
         <f>G11/SUM($G$2:$G$38)</f>
-        <v>1.1852679462063656E-2</v>
+        <v>1.2581959209001728E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -903,7 +909,7 @@
       </c>
       <c r="D12">
         <f>COUNTIF($B$2:$B$38,B12)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <f>COUNTIF($C$2:$C$38,C12)</f>
@@ -914,11 +920,11 @@
       </c>
       <c r="G12">
         <f>(LOG(IF(B12=C12,D12,D12+E12)))/(F12*F12)</f>
-        <v>0.13947472278925621</v>
+        <v>0.13671654681980822</v>
       </c>
       <c r="H12">
         <f>G12/SUM($G$2:$G$38)</f>
-        <v>1.5591783528144302E-2</v>
+        <v>1.5481458137541619E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -933,7 +939,7 @@
       </c>
       <c r="D13">
         <f>COUNTIF($B$2:$B$38,B13)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <f>COUNTIF($C$2:$C$38,C13)</f>
@@ -944,76 +950,76 @@
       </c>
       <c r="G13">
         <f>(LOG(IF(B13=C13,D13,D13+E13)))/(F13*F13)</f>
-        <v>0.13947472278925621</v>
+        <v>0.13671654681980822</v>
       </c>
       <c r="H13">
         <f>G13/SUM($G$2:$G$38)</f>
-        <v>1.5591783528144302E-2</v>
+        <v>1.5481458137541619E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <f>COUNTIF($B$2:$B$38,B14)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <f>COUNTIF($C$2:$C$38,C14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14">
         <f>(LOG(IF(B14=C14,D14,D14+E14)))/(F14*F14)</f>
-        <v>0.14208373343920322</v>
+        <v>0.13671654681980822</v>
       </c>
       <c r="H14">
         <f>G14/SUM($G$2:$G$38)</f>
-        <v>1.5883443037932769E-2</v>
+        <v>1.5481458137541619E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <f>COUNTIF($B$2:$B$38,B15)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <f>COUNTIF($C$2:$C$38,C15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
         <f>(LOG(IF(B15=C15,D15,D15+E15)))/(F15*F15)</f>
-        <v>0.14208373343920322</v>
+        <v>0.13671654681980822</v>
       </c>
       <c r="H15">
         <f>G15/SUM($G$2:$G$38)</f>
-        <v>1.5883443037932769E-2</v>
+        <v>1.5481458137541619E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
@@ -1023,7 +1029,7 @@
       </c>
       <c r="D16">
         <f>COUNTIF($B$2:$B$38,B16)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <f>COUNTIF($C$2:$C$38,C16)</f>
@@ -1034,86 +1040,86 @@
       </c>
       <c r="G16">
         <f>(LOG(IF(B16=C16,D16,D16+E16)))/(F16*F16)</f>
-        <v>0.14208373343920322</v>
+        <v>0.13947472278925621</v>
       </c>
       <c r="H16">
         <f>G16/SUM($G$2:$G$38)</f>
-        <v>1.5883443037932769E-2</v>
+        <v>1.5793787455391211E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
+      <c r="C17" t="s">
+        <v>10</v>
       </c>
       <c r="D17">
         <f>COUNTIF($B$2:$B$38,B17)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <f>COUNTIF($C$2:$C$38,C17)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17">
         <f>(LOG(IF(B17=C17,D17,D17+E17)))/(F17*F17)</f>
-        <v>0.14691325497043548</v>
+        <v>0.13947472278925621</v>
       </c>
       <c r="H17">
         <f>G17/SUM($G$2:$G$38)</f>
-        <v>1.6423331935028939E-2</v>
+        <v>1.5793787455391211E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+      <c r="C18" t="s">
+        <v>10</v>
       </c>
       <c r="D18">
         <f>COUNTIF($B$2:$B$38,B18)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <f>COUNTIF($C$2:$C$38,C18)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>3</v>
       </c>
       <c r="G18">
         <f>(LOG(IF(B18=C18,D18,D18+E18)))/(F18*F18)</f>
-        <v>0.14691325497043548</v>
+        <v>0.13947472278925621</v>
       </c>
       <c r="H18">
         <f>G18/SUM($G$2:$G$38)</f>
-        <v>1.6423331935028939E-2</v>
+        <v>1.5793787455391211E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <f>COUNTIF($B$2:$B$38,B19)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <f>COUNTIF($C$2:$C$38,C19)</f>
@@ -1124,26 +1130,26 @@
       </c>
       <c r="G19">
         <f>(LOG(IF(B19=C19,D19,D19+E19)))/(F19*F19)</f>
-        <v>0.14691325497043548</v>
+        <v>0.14455888840710904</v>
       </c>
       <c r="H19">
         <f>G19/SUM($G$2:$G$38)</f>
-        <v>1.6423331935028939E-2</v>
+        <v>1.6369506335131911E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <f>COUNTIF($B$2:$B$38,B20)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <f>COUNTIF($C$2:$C$38,C20)</f>
@@ -1154,26 +1160,26 @@
       </c>
       <c r="G20">
         <f>(LOG(IF(B20=C20,D20,D20+E20)))/(F20*F20)</f>
-        <v>0.14691325497043548</v>
+        <v>0.14455888840710904</v>
       </c>
       <c r="H20">
         <f>G20/SUM($G$2:$G$38)</f>
-        <v>1.6423331935028939E-2</v>
+        <v>1.6369506335131911E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <f>COUNTIF($B$2:$B$38,B21)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <f>COUNTIF($C$2:$C$38,C21)</f>
@@ -1184,71 +1190,71 @@
       </c>
       <c r="G21">
         <f>(LOG(IF(B21=C21,D21,D21+E21)))/(F21*F21)</f>
-        <v>0.14691325497043548</v>
+        <v>0.14455888840710904</v>
       </c>
       <c r="H21">
         <f>G21/SUM($G$2:$G$38)</f>
-        <v>1.6423331935028939E-2</v>
+        <v>1.6369506335131911E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <f>COUNTIF($B$2:$B$38,B22)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <f>COUNTIF($C$2:$C$38,C22)</f>
-        <v>2</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
       </c>
       <c r="G22">
         <f>(LOG(IF(B22=C22,D22,D22+E22)))/(F22*F22)</f>
-        <v>0.1505149978319906</v>
+        <v>0.14455888840710904</v>
       </c>
       <c r="H22">
         <f>G22/SUM($G$2:$G$38)</f>
-        <v>1.6825968297362919E-2</v>
+        <v>1.6369506335131911E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <f>COUNTIF($B$2:$B$38,B23)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <f>COUNTIF($C$2:$C$38,C23)</f>
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
       </c>
       <c r="G23">
         <f>(LOG(IF(B23=C23,D23,D23+E23)))/(F23*F23)</f>
-        <v>0.1505149978319906</v>
+        <v>0.14455888840710904</v>
       </c>
       <c r="H23">
         <f>G23/SUM($G$2:$G$38)</f>
-        <v>1.6825968297362919E-2</v>
+        <v>1.6369506335131911E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1278,7 +1284,7 @@
       </c>
       <c r="H24">
         <f>G24/SUM($G$2:$G$38)</f>
-        <v>2.1747248543503073E-2</v>
+        <v>2.2029001404211563E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1308,7 +1314,7 @@
       </c>
       <c r="H25">
         <f>G25/SUM($G$2:$G$38)</f>
-        <v>2.1747248543503073E-2</v>
+        <v>2.2029001404211563E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1338,7 +1344,7 @@
       </c>
       <c r="H26">
         <f>G26/SUM($G$2:$G$38)</f>
-        <v>2.1747248543503073E-2</v>
+        <v>2.2029001404211563E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1368,7 +1374,7 @@
       </c>
       <c r="H27">
         <f>G27/SUM($G$2:$G$38)</f>
-        <v>2.1747248543503073E-2</v>
+        <v>2.2029001404211563E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1398,7 +1404,7 @@
       </c>
       <c r="H28">
         <f>G28/SUM($G$2:$G$38)</f>
-        <v>2.1747248543503073E-2</v>
+        <v>2.2029001404211563E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1428,42 +1434,42 @@
       </c>
       <c r="H29">
         <f>G29/SUM($G$2:$G$38)</f>
-        <v>2.1747248543503073E-2</v>
+        <v>2.2029001404211563E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D30">
         <f>COUNTIF($B$2:$B$38,B30)</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E30">
         <f>COUNTIF($C$2:$C$38,C30)</f>
-        <v>4</v>
-      </c>
-      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3">
         <v>2</v>
       </c>
       <c r="G30">
         <f>(LOG(IF(B30=C30,D30,D30+E30)))/(F30*F30)</f>
-        <v>0.3010299956639812</v>
+        <v>0.2112745100035642</v>
       </c>
       <c r="H30">
         <f>G30/SUM($G$2:$G$38)</f>
-        <v>3.3651936594725838E-2</v>
+        <v>2.3924225400900053E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
@@ -1473,52 +1479,52 @@
       </c>
       <c r="D31">
         <f>COUNTIF($B$2:$B$38,B31)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <f>COUNTIF($C$2:$C$38,C31)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31">
         <f>(LOG(IF(B31=C31,D31,D31+E31)))/(F31*F31)</f>
-        <v>0.3010299956639812</v>
+        <v>0.29402281476392034</v>
       </c>
       <c r="H31">
         <f>G31/SUM($G$2:$G$38)</f>
-        <v>3.3651936594725838E-2</v>
+        <v>3.3294447556879651E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
         <f>COUNTIF($B$2:$B$38,B32)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <f>COUNTIF($C$2:$C$38,C32)</f>
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="F32">
         <v>2</v>
       </c>
       <c r="G32">
         <f>(LOG(IF(B32=C32,D32,D32+E32)))/(F32*F32)</f>
-        <v>0.3010299956639812</v>
+        <v>0.29402281476392034</v>
       </c>
       <c r="H32">
         <f>G32/SUM($G$2:$G$38)</f>
-        <v>3.3651936594725838E-2</v>
+        <v>3.3294447556879651E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1533,22 +1539,22 @@
       </c>
       <c r="D33">
         <f>COUNTIF($B$2:$B$38,B33)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <f>COUNTIF($C$2:$C$38,C33)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33">
         <f>(LOG(IF(B33=C33,D33,D33+E33)))/(F33*F33)</f>
-        <v>0.3010299956639812</v>
+        <v>0.29402281476392034</v>
       </c>
       <c r="H33">
         <f>G33/SUM($G$2:$G$38)</f>
-        <v>3.3651936594725838E-2</v>
+        <v>3.3294447556879651E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1578,7 +1584,7 @@
       </c>
       <c r="H34">
         <f>G34/SUM($G$2:$G$38)</f>
-        <v>8.6988994174012291E-2</v>
+        <v>8.8116005616846252E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1608,7 +1614,7 @@
       </c>
       <c r="H35">
         <f>G35/SUM($G$2:$G$38)</f>
-        <v>8.6988994174012291E-2</v>
+        <v>8.8116005616846252E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1638,7 +1644,7 @@
       </c>
       <c r="H36">
         <f>G36/SUM($G$2:$G$38)</f>
-        <v>8.6988994174012291E-2</v>
+        <v>8.8116005616846252E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1668,7 +1674,7 @@
       </c>
       <c r="H37">
         <f>G37/SUM($G$2:$G$38)</f>
-        <v>8.6988994174012291E-2</v>
+        <v>8.8116005616846252E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1698,7 +1704,7 @@
       </c>
       <c r="H38">
         <f>G38/SUM($G$2:$G$38)</f>
-        <v>8.6988994174012291E-2</v>
+        <v>8.8116005616846252E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Phones/distinctive_features.xlsx
+++ b/Code/Phones/distinctive_features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phgeorgis/Documents/School/MSc/Saarland_University/Courses/Thesis/Code/Phones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275D3169-588F-0E4A-97AB-4ED42DBB0726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9272C81-9EBF-ED4C-AC76-E64C42C329DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
   <si>
     <t>Feature</t>
   </si>
@@ -199,6 +199,27 @@
   </si>
   <si>
     <t>prosody</t>
+  </si>
+  <si>
+    <t>tone_contour</t>
+  </si>
+  <si>
+    <t>tone_high</t>
+  </si>
+  <si>
+    <t>tone_central</t>
+  </si>
+  <si>
+    <t>tone_mid</t>
+  </si>
+  <si>
+    <t>tone_rising</t>
+  </si>
+  <si>
+    <t>tone_falling</t>
+  </si>
+  <si>
+    <t>tone_convex</t>
   </si>
 </sst>
 </file>
@@ -555,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -599,380 +620,380 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
-        <f>COUNTIF($B$2:$B$38,B2)</f>
+        <f>COUNTIF($B$2:$B$45,B2)</f>
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF($C$2:$C$45,C2)</f>
+        <v>7</v>
+      </c>
+      <c r="F2">
         <v>4</v>
-      </c>
-      <c r="E2">
-        <f>COUNTIF($C$2:$C$38,C2)</f>
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
       </c>
       <c r="G2">
         <f>(LOG(IF(B2=C2,D2,D2+E2)))/(F2*F2)</f>
-        <v>8.6461250042627072E-2</v>
+        <v>8.1314374728998828E-2</v>
       </c>
       <c r="H2">
         <f>G2/SUM($G$2:$G$38)</f>
-        <v>9.7906672907606962E-3</v>
+        <v>1.4988622231789964E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
-        <f>COUNTIF($B$2:$B$38,B3)</f>
+        <f>COUNTIF($B$2:$B$45,B3)</f>
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIF($C$2:$C$45,C3)</f>
+        <v>7</v>
+      </c>
+      <c r="F3">
         <v>4</v>
-      </c>
-      <c r="E3">
-        <f>COUNTIF($C$2:$C$38,C3)</f>
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
       </c>
       <c r="G3">
         <f>(LOG(IF(B3=C3,D3,D3+E3)))/(F3*F3)</f>
-        <v>8.6461250042627072E-2</v>
+        <v>8.1314374728998828E-2</v>
       </c>
       <c r="H3">
         <f>G3/SUM($G$2:$G$38)</f>
-        <v>9.7906672907606962E-3</v>
+        <v>1.4988622231789964E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
-        <f>COUNTIF($B$2:$B$38,B4)</f>
+        <f>COUNTIF($B$2:$B$45,B4)</f>
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIF($C$2:$C$45,C4)</f>
+        <v>7</v>
+      </c>
+      <c r="F4">
         <v>4</v>
-      </c>
-      <c r="E4">
-        <f>COUNTIF($C$2:$C$38,C4)</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3</v>
       </c>
       <c r="G4">
         <f>(LOG(IF(B4=C4,D4,D4+E4)))/(F4*F4)</f>
-        <v>8.6461250042627072E-2</v>
+        <v>8.1314374728998828E-2</v>
       </c>
       <c r="H4">
         <f>G4/SUM($G$2:$G$38)</f>
-        <v>9.7906672907606962E-3</v>
+        <v>1.4988622231789964E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D5">
-        <f>COUNTIF($B$2:$B$38,B5)</f>
+        <f>COUNTIF($B$2:$B$45,B5)</f>
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIF($C$2:$C$45,C5)</f>
+        <v>7</v>
+      </c>
+      <c r="F5">
         <v>4</v>
-      </c>
-      <c r="E5">
-        <f>COUNTIF($C$2:$C$38,C5)</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3</v>
       </c>
       <c r="G5">
         <f>(LOG(IF(B5=C5,D5,D5+E5)))/(F5*F5)</f>
-        <v>8.6461250042627072E-2</v>
+        <v>8.1314374728998828E-2</v>
       </c>
       <c r="H5">
         <f>G5/SUM($G$2:$G$38)</f>
-        <v>9.7906672907606962E-3</v>
+        <v>1.4988622231789964E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
       <c r="D6">
-        <f>COUNTIF($B$2:$B$38,B6)</f>
+        <f>COUNTIF($B$2:$B$45,B6)</f>
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIF($C$2:$C$45,C6)</f>
         <v>7</v>
       </c>
-      <c r="E6">
-        <f>COUNTIF($C$2:$C$38,C6)</f>
-        <v>1</v>
-      </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f>(LOG(IF(B6=C6,D6,D6+E6)))/(F6*F6)</f>
-        <v>0.10034333188799373</v>
+        <v>8.1314374728998828E-2</v>
       </c>
       <c r="H6">
         <f>G6/SUM($G$2:$G$38)</f>
-        <v>1.1362641378390536E-2</v>
+        <v>1.4988622231789964E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <f>COUNTIF($B$2:$B$38,B7)</f>
+        <f>COUNTIF($B$2:$B$45,B7)</f>
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIF($C$2:$C$45,C7)</f>
         <v>7</v>
       </c>
-      <c r="E7">
-        <f>COUNTIF($C$2:$C$38,C7)</f>
-        <v>2</v>
-      </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f>(LOG(IF(B7=C7,D7,D7+E7)))/(F7*F7)</f>
-        <v>0.10602694549325832</v>
+        <v>8.1314374728998828E-2</v>
       </c>
       <c r="H7">
         <f>G7/SUM($G$2:$G$38)</f>
-        <v>1.2006240329261033E-2</v>
+        <v>1.4988622231789964E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <f>COUNTIF($B$2:$B$38,B8)</f>
+        <f>COUNTIF($B$2:$B$45,B8)</f>
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <f>COUNTIF($C$2:$C$45,C8)</f>
         <v>7</v>
       </c>
-      <c r="E8">
-        <f>COUNTIF($C$2:$C$38,C8)</f>
-        <v>2</v>
-      </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <f>(LOG(IF(B8=C8,D8,D8+E8)))/(F8*F8)</f>
-        <v>0.10602694549325832</v>
+        <v>8.1314374728998828E-2</v>
       </c>
       <c r="H8">
         <f>G8/SUM($G$2:$G$38)</f>
-        <v>1.2006240329261033E-2</v>
+        <v>1.4988622231789964E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D9">
-        <f>COUNTIF($B$2:$B$38,B9)</f>
-        <v>7</v>
+        <f>COUNTIF($B$2:$B$45,B9)</f>
+        <v>4</v>
       </c>
       <c r="E9">
-        <f>COUNTIF($C$2:$C$38,C9)</f>
-        <v>3</v>
+        <f>COUNTIF($C$2:$C$45,C9)</f>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
       <c r="G9">
         <f>(LOG(IF(B9=C9,D9,D9+E9)))/(F9*F9)</f>
-        <v>0.1111111111111111</v>
+        <v>8.6461250042627072E-2</v>
       </c>
       <c r="H9">
         <f>G9/SUM($G$2:$G$38)</f>
-        <v>1.2581959209001728E-2</v>
+        <v>1.5937342184531449E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D10">
-        <f>COUNTIF($B$2:$B$38,B10)</f>
-        <v>7</v>
+        <f>COUNTIF($B$2:$B$45,B10)</f>
+        <v>4</v>
       </c>
       <c r="E10">
-        <f>COUNTIF($C$2:$C$38,C10)</f>
-        <v>3</v>
+        <f>COUNTIF($C$2:$C$45,C10)</f>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10">
         <f>(LOG(IF(B10=C10,D10,D10+E10)))/(F10*F10)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H10" s="3">
+        <v>8.6461250042627072E-2</v>
+      </c>
+      <c r="H10">
         <f>G10/SUM($G$2:$G$38)</f>
-        <v>1.2581959209001728E-2</v>
+        <v>1.5937342184531449E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D11">
-        <f>COUNTIF($B$2:$B$38,B11)</f>
-        <v>7</v>
+        <f>COUNTIF($B$2:$B$45,B11)</f>
+        <v>4</v>
       </c>
       <c r="E11">
-        <f>COUNTIF($C$2:$C$38,C11)</f>
-        <v>3</v>
-      </c>
-      <c r="F11">
+        <f>COUNTIF($C$2:$C$45,C11)</f>
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
         <v>3</v>
       </c>
       <c r="G11">
         <f>(LOG(IF(B11=C11,D11,D11+E11)))/(F11*F11)</f>
-        <v>0.1111111111111111</v>
+        <v>8.6461250042627072E-2</v>
       </c>
       <c r="H11">
         <f>G11/SUM($G$2:$G$38)</f>
-        <v>1.2581959209001728E-2</v>
+        <v>1.5937342184531449E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D12">
-        <f>COUNTIF($B$2:$B$38,B12)</f>
-        <v>15</v>
+        <f>COUNTIF($B$2:$B$45,B12)</f>
+        <v>4</v>
       </c>
       <c r="E12">
-        <f>COUNTIF($C$2:$C$38,C12)</f>
-        <v>2</v>
-      </c>
-      <c r="F12">
+        <f>COUNTIF($C$2:$C$45,C12)</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="3">
         <v>3</v>
       </c>
       <c r="G12">
         <f>(LOG(IF(B12=C12,D12,D12+E12)))/(F12*F12)</f>
-        <v>0.13671654681980822</v>
+        <v>8.6461250042627072E-2</v>
       </c>
       <c r="H12">
         <f>G12/SUM($G$2:$G$38)</f>
-        <v>1.5481458137541619E-2</v>
+        <v>1.5937342184531449E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D13">
-        <f>COUNTIF($B$2:$B$38,B13)</f>
-        <v>15</v>
+        <f>COUNTIF($B$2:$B$45,B13)</f>
+        <v>7</v>
       </c>
       <c r="E13">
-        <f>COUNTIF($C$2:$C$38,C13)</f>
-        <v>2</v>
+        <f>COUNTIF($C$2:$C$45,C13)</f>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13">
         <f>(LOG(IF(B13=C13,D13,D13+E13)))/(F13*F13)</f>
-        <v>0.13671654681980822</v>
+        <v>0.10034333188799373</v>
       </c>
       <c r="H13">
         <f>G13/SUM($G$2:$G$38)</f>
-        <v>1.5481458137541619E-2</v>
+        <v>1.8496216691830419E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <f>COUNTIF($B$2:$B$38,B14)</f>
-        <v>15</v>
+        <f>COUNTIF($B$2:$B$45,B14)</f>
+        <v>7</v>
       </c>
       <c r="E14">
-        <f>COUNTIF($C$2:$C$38,C14)</f>
+        <f>COUNTIF($C$2:$C$45,C14)</f>
         <v>2</v>
       </c>
       <c r="F14">
@@ -980,29 +1001,29 @@
       </c>
       <c r="G14">
         <f>(LOG(IF(B14=C14,D14,D14+E14)))/(F14*F14)</f>
-        <v>0.13671654681980822</v>
+        <v>0.10602694549325832</v>
       </c>
       <c r="H14">
         <f>G14/SUM($G$2:$G$38)</f>
-        <v>1.5481458137541619E-2</v>
+        <v>1.9543873241175954E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <f>COUNTIF($B$2:$B$38,B15)</f>
-        <v>15</v>
+        <f>COUNTIF($B$2:$B$45,B15)</f>
+        <v>7</v>
       </c>
       <c r="E15">
-        <f>COUNTIF($C$2:$C$38,C15)</f>
+        <f>COUNTIF($C$2:$C$45,C15)</f>
         <v>2</v>
       </c>
       <c r="F15">
@@ -1010,29 +1031,29 @@
       </c>
       <c r="G15">
         <f>(LOG(IF(B15=C15,D15,D15+E15)))/(F15*F15)</f>
-        <v>0.13671654681980822</v>
+        <v>0.10602694549325832</v>
       </c>
       <c r="H15">
         <f>G15/SUM($G$2:$G$38)</f>
-        <v>1.5481458137541619E-2</v>
+        <v>1.9543873241175954E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <f>COUNTIF($B$2:$B$38,B16)</f>
-        <v>15</v>
+        <f>COUNTIF($B$2:$B$45,B16)</f>
+        <v>7</v>
       </c>
       <c r="E16">
-        <f>COUNTIF($C$2:$C$38,C16)</f>
+        <f>COUNTIF($C$2:$C$45,C16)</f>
         <v>3</v>
       </c>
       <c r="F16">
@@ -1040,29 +1061,29 @@
       </c>
       <c r="G16">
         <f>(LOG(IF(B16=C16,D16,D16+E16)))/(F16*F16)</f>
-        <v>0.13947472278925621</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H16">
         <f>G16/SUM($G$2:$G$38)</f>
-        <v>1.5793787455391211E-2</v>
+        <v>2.0481033959238684E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <f>COUNTIF($B$2:$B$38,B17)</f>
-        <v>15</v>
+        <f>COUNTIF($B$2:$B$45,B17)</f>
+        <v>7</v>
       </c>
       <c r="E17">
-        <f>COUNTIF($C$2:$C$38,C17)</f>
+        <f>COUNTIF($C$2:$C$45,C17)</f>
         <v>3</v>
       </c>
       <c r="F17">
@@ -1070,29 +1091,29 @@
       </c>
       <c r="G17">
         <f>(LOG(IF(B17=C17,D17,D17+E17)))/(F17*F17)</f>
-        <v>0.13947472278925621</v>
-      </c>
-      <c r="H17">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H17" s="3">
         <f>G17/SUM($G$2:$G$38)</f>
-        <v>1.5793787455391211E-2</v>
+        <v>2.0481033959238684E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <f>COUNTIF($B$2:$B$38,B18)</f>
-        <v>15</v>
+        <f>COUNTIF($B$2:$B$45,B18)</f>
+        <v>7</v>
       </c>
       <c r="E18">
-        <f>COUNTIF($C$2:$C$38,C18)</f>
+        <f>COUNTIF($C$2:$C$45,C18)</f>
         <v>3</v>
       </c>
       <c r="F18">
@@ -1100,621 +1121,831 @@
       </c>
       <c r="G18">
         <f>(LOG(IF(B18=C18,D18,D18+E18)))/(F18*F18)</f>
-        <v>0.13947472278925621</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H18">
         <f>G18/SUM($G$2:$G$38)</f>
-        <v>1.5793787455391211E-2</v>
+        <v>2.0481033959238684E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>54</v>
+      <c r="C19" t="s">
+        <v>3</v>
       </c>
       <c r="D19">
-        <f>COUNTIF($B$2:$B$38,B19)</f>
+        <f>COUNTIF($B$2:$B$45,B19)</f>
         <v>15</v>
       </c>
       <c r="E19">
-        <f>COUNTIF($C$2:$C$38,C19)</f>
-        <v>5</v>
+        <f>COUNTIF($C$2:$C$45,C19)</f>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19">
         <f>(LOG(IF(B19=C19,D19,D19+E19)))/(F19*F19)</f>
-        <v>0.14455888840710904</v>
+        <v>0.13671654681980822</v>
       </c>
       <c r="H19">
         <f>G19/SUM($G$2:$G$38)</f>
-        <v>1.6369506335131911E-2</v>
+        <v>2.5200866143857036E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>54</v>
+      <c r="C20" t="s">
+        <v>3</v>
       </c>
       <c r="D20">
-        <f>COUNTIF($B$2:$B$38,B20)</f>
+        <f>COUNTIF($B$2:$B$45,B20)</f>
         <v>15</v>
       </c>
       <c r="E20">
-        <f>COUNTIF($C$2:$C$38,C20)</f>
-        <v>5</v>
+        <f>COUNTIF($C$2:$C$45,C20)</f>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20">
         <f>(LOG(IF(B20=C20,D20,D20+E20)))/(F20*F20)</f>
-        <v>0.14455888840710904</v>
+        <v>0.13671654681980822</v>
       </c>
       <c r="H20">
         <f>G20/SUM($G$2:$G$38)</f>
-        <v>1.6369506335131911E-2</v>
+        <v>2.5200866143857036E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>54</v>
+      <c r="C21" t="s">
+        <v>50</v>
       </c>
       <c r="D21">
-        <f>COUNTIF($B$2:$B$38,B21)</f>
+        <f>COUNTIF($B$2:$B$45,B21)</f>
         <v>15</v>
       </c>
       <c r="E21">
-        <f>COUNTIF($C$2:$C$38,C21)</f>
-        <v>5</v>
+        <f>COUNTIF($C$2:$C$45,C21)</f>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21">
         <f>(LOG(IF(B21=C21,D21,D21+E21)))/(F21*F21)</f>
-        <v>0.14455888840710904</v>
+        <v>0.13671654681980822</v>
       </c>
       <c r="H21">
         <f>G21/SUM($G$2:$G$38)</f>
-        <v>1.6369506335131911E-2</v>
+        <v>2.5200866143857036E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>54</v>
+      <c r="C22" t="s">
+        <v>50</v>
       </c>
       <c r="D22">
-        <f>COUNTIF($B$2:$B$38,B22)</f>
+        <f>COUNTIF($B$2:$B$45,B22)</f>
         <v>15</v>
       </c>
       <c r="E22">
-        <f>COUNTIF($C$2:$C$38,C22)</f>
-        <v>5</v>
+        <f>COUNTIF($C$2:$C$45,C22)</f>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22">
         <f>(LOG(IF(B22=C22,D22,D22+E22)))/(F22*F22)</f>
-        <v>0.14455888840710904</v>
+        <v>0.13671654681980822</v>
       </c>
       <c r="H22">
         <f>G22/SUM($G$2:$G$38)</f>
-        <v>1.6369506335131911E-2</v>
+        <v>2.5200866143857036E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
+      <c r="C23" t="s">
+        <v>10</v>
       </c>
       <c r="D23">
-        <f>COUNTIF($B$2:$B$38,B23)</f>
+        <f>COUNTIF($B$2:$B$45,B23)</f>
         <v>15</v>
       </c>
       <c r="E23">
-        <f>COUNTIF($C$2:$C$38,C23)</f>
-        <v>5</v>
+        <f>COUNTIF($C$2:$C$45,C23)</f>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23">
         <f>(LOG(IF(B23=C23,D23,D23+E23)))/(F23*F23)</f>
-        <v>0.14455888840710904</v>
+        <v>0.13947472278925621</v>
       </c>
       <c r="H23">
         <f>G23/SUM($G$2:$G$38)</f>
-        <v>1.6369506335131911E-2</v>
+        <v>2.5709278805119421E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
       </c>
       <c r="D24">
-        <f>COUNTIF($B$2:$B$38,B24)</f>
-        <v>6</v>
+        <f>COUNTIF($B$2:$B$45,B24)</f>
+        <v>15</v>
       </c>
       <c r="E24">
-        <f>COUNTIF($C$2:$C$38,C24)</f>
-        <v>6</v>
+        <f>COUNTIF($C$2:$C$45,C24)</f>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <f>(LOG(IF(B24=C24,D24,D24+E24)))/(F24*F24)</f>
-        <v>0.19453781259591091</v>
+        <v>0.13947472278925621</v>
       </c>
       <c r="H24">
         <f>G24/SUM($G$2:$G$38)</f>
-        <v>2.2029001404211563E-2</v>
+        <v>2.5709278805119421E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
       </c>
       <c r="D25">
-        <f>COUNTIF($B$2:$B$38,B25)</f>
-        <v>6</v>
+        <f>COUNTIF($B$2:$B$45,B25)</f>
+        <v>15</v>
       </c>
       <c r="E25">
-        <f>COUNTIF($C$2:$C$38,C25)</f>
-        <v>6</v>
+        <f>COUNTIF($C$2:$C$45,C25)</f>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <f>(LOG(IF(B25=C25,D25,D25+E25)))/(F25*F25)</f>
-        <v>0.19453781259591091</v>
+        <v>0.13947472278925621</v>
       </c>
       <c r="H25">
         <f>G25/SUM($G$2:$G$38)</f>
-        <v>2.2029001404211563E-2</v>
+        <v>2.5709278805119421E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <f>COUNTIF($B$2:$B$38,B26)</f>
-        <v>6</v>
+        <f>COUNTIF($B$2:$B$45,B26)</f>
+        <v>15</v>
       </c>
       <c r="E26">
-        <f>COUNTIF($C$2:$C$38,C26)</f>
-        <v>6</v>
+        <f>COUNTIF($C$2:$C$45,C26)</f>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <f>(LOG(IF(B26=C26,D26,D26+E26)))/(F26*F26)</f>
-        <v>0.19453781259591091</v>
+        <v>0.14455888840710904</v>
       </c>
       <c r="H26">
         <f>G26/SUM($G$2:$G$38)</f>
-        <v>2.2029001404211563E-2</v>
+        <v>2.6646439523182158E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D27">
-        <f>COUNTIF($B$2:$B$38,B27)</f>
-        <v>6</v>
+        <f>COUNTIF($B$2:$B$45,B27)</f>
+        <v>15</v>
       </c>
       <c r="E27">
-        <f>COUNTIF($C$2:$C$38,C27)</f>
-        <v>6</v>
+        <f>COUNTIF($C$2:$C$45,C27)</f>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <f>(LOG(IF(B27=C27,D27,D27+E27)))/(F27*F27)</f>
-        <v>0.19453781259591091</v>
+        <v>0.14455888840710904</v>
       </c>
       <c r="H27">
         <f>G27/SUM($G$2:$G$38)</f>
-        <v>2.2029001404211563E-2</v>
+        <v>2.6646439523182158E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D28">
-        <f>COUNTIF($B$2:$B$38,B28)</f>
-        <v>6</v>
+        <f>COUNTIF($B$2:$B$45,B28)</f>
+        <v>15</v>
       </c>
       <c r="E28">
-        <f>COUNTIF($C$2:$C$38,C28)</f>
-        <v>6</v>
+        <f>COUNTIF($C$2:$C$45,C28)</f>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28">
         <f>(LOG(IF(B28=C28,D28,D28+E28)))/(F28*F28)</f>
-        <v>0.19453781259591091</v>
+        <v>0.14455888840710904</v>
       </c>
       <c r="H28">
         <f>G28/SUM($G$2:$G$38)</f>
-        <v>2.2029001404211563E-2</v>
+        <v>2.6646439523182158E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D29">
-        <f>COUNTIF($B$2:$B$38,B29)</f>
-        <v>6</v>
+        <f>COUNTIF($B$2:$B$45,B29)</f>
+        <v>15</v>
       </c>
       <c r="E29">
-        <f>COUNTIF($C$2:$C$38,C29)</f>
-        <v>6</v>
+        <f>COUNTIF($C$2:$C$45,C29)</f>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <f>(LOG(IF(B29=C29,D29,D29+E29)))/(F29*F29)</f>
-        <v>0.19453781259591091</v>
+        <v>0.14455888840710904</v>
       </c>
       <c r="H29">
         <f>G29/SUM($G$2:$G$38)</f>
-        <v>2.2029001404211563E-2</v>
+        <v>2.6646439523182158E-2</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <f>COUNTIF($B$2:$B$38,B30)</f>
-        <v>7</v>
+        <f>COUNTIF($B$2:$B$45,B30)</f>
+        <v>15</v>
       </c>
       <c r="E30">
-        <f>COUNTIF($C$2:$C$38,C30)</f>
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>2</v>
+        <f>COUNTIF($C$2:$C$45,C30)</f>
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
       </c>
       <c r="G30">
         <f>(LOG(IF(B30=C30,D30,D30+E30)))/(F30*F30)</f>
-        <v>0.2112745100035642</v>
+        <v>0.14455888840710904</v>
       </c>
       <c r="H30">
         <f>G30/SUM($G$2:$G$38)</f>
-        <v>2.3924225400900053E-2</v>
+        <v>2.6646439523182158E-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D31">
-        <f>COUNTIF($B$2:$B$38,B31)</f>
-        <v>15</v>
+        <f>COUNTIF($B$2:$B$45,B31)</f>
+        <v>7</v>
       </c>
       <c r="E31">
-        <f>COUNTIF($C$2:$C$38,C31)</f>
-        <v>3</v>
-      </c>
-      <c r="F31">
+        <f>COUNTIF($C$2:$C$45,C31)</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
         <v>2</v>
       </c>
       <c r="G31">
         <f>(LOG(IF(B31=C31,D31,D31+E31)))/(F31*F31)</f>
-        <v>0.29402281476392034</v>
+        <v>0.2112745100035642</v>
       </c>
       <c r="H31">
         <f>G31/SUM($G$2:$G$38)</f>
-        <v>3.3294447556879651E-2</v>
+        <v>3.8944083726940602E-2</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D32">
-        <f>COUNTIF($B$2:$B$38,B32)</f>
-        <v>15</v>
+        <f>COUNTIF($B$2:$B$45,B32)</f>
+        <v>13</v>
       </c>
       <c r="E32">
-        <f>COUNTIF($C$2:$C$38,C32)</f>
-        <v>3</v>
+        <f>COUNTIF($C$2:$C$45,C32)</f>
+        <v>6</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32">
         <f>(LOG(IF(B32=C32,D32,D32+E32)))/(F32*F32)</f>
-        <v>0.29402281476392034</v>
+        <v>0.27848583807670918</v>
       </c>
       <c r="H32">
         <f>G32/SUM($G$2:$G$38)</f>
-        <v>3.3294447556879651E-2</v>
+        <v>5.1333101161345131E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D33">
-        <f>COUNTIF($B$2:$B$38,B33)</f>
-        <v>15</v>
+        <f>COUNTIF($B$2:$B$45,B33)</f>
+        <v>13</v>
       </c>
       <c r="E33">
-        <f>COUNTIF($C$2:$C$38,C33)</f>
-        <v>3</v>
+        <f>COUNTIF($C$2:$C$45,C33)</f>
+        <v>6</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33">
         <f>(LOG(IF(B33=C33,D33,D33+E33)))/(F33*F33)</f>
-        <v>0.29402281476392034</v>
+        <v>0.27848583807670918</v>
       </c>
       <c r="H33">
         <f>G33/SUM($G$2:$G$38)</f>
-        <v>3.3294447556879651E-2</v>
+        <v>5.1333101161345131E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D34">
-        <f>COUNTIF($B$2:$B$38,B34)</f>
-        <v>1</v>
+        <f>COUNTIF($B$2:$B$45,B34)</f>
+        <v>13</v>
       </c>
       <c r="E34">
-        <f>COUNTIF($C$2:$C$38,C34)</f>
-        <v>5</v>
+        <f>COUNTIF($C$2:$C$45,C34)</f>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <f>(LOG(IF(B34=C34,D34,D34+E34)))/(F34*F34)</f>
-        <v>0.77815125038364363</v>
+        <v>0.27848583807670918</v>
       </c>
       <c r="H34">
         <f>G34/SUM($G$2:$G$38)</f>
-        <v>8.8116005616846252E-2</v>
+        <v>5.1333101161345131E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <f>COUNTIF($B$2:$B$38,B35)</f>
-        <v>1</v>
+        <f>COUNTIF($B$2:$B$45,B35)</f>
+        <v>13</v>
       </c>
       <c r="E35">
-        <f>COUNTIF($C$2:$C$38,C35)</f>
-        <v>5</v>
+        <f>COUNTIF($C$2:$C$45,C35)</f>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <f>(LOG(IF(B35=C35,D35,D35+E35)))/(F35*F35)</f>
-        <v>0.77815125038364363</v>
+        <v>0.27848583807670918</v>
       </c>
       <c r="H35">
         <f>G35/SUM($G$2:$G$38)</f>
-        <v>8.8116005616846252E-2</v>
+        <v>5.1333101161345131E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D36">
-        <f>COUNTIF($B$2:$B$38,B36)</f>
-        <v>1</v>
+        <f>COUNTIF($B$2:$B$45,B36)</f>
+        <v>13</v>
       </c>
       <c r="E36">
-        <f>COUNTIF($C$2:$C$38,C36)</f>
-        <v>5</v>
+        <f>COUNTIF($C$2:$C$45,C36)</f>
+        <v>6</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <f>(LOG(IF(B36=C36,D36,D36+E36)))/(F36*F36)</f>
-        <v>0.77815125038364363</v>
+        <v>0.27848583807670918</v>
       </c>
       <c r="H36">
         <f>G36/SUM($G$2:$G$38)</f>
-        <v>8.8116005616846252E-2</v>
+        <v>5.1333101161345131E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D37">
-        <f>COUNTIF($B$2:$B$38,B37)</f>
-        <v>1</v>
+        <f>COUNTIF($B$2:$B$45,B37)</f>
+        <v>13</v>
       </c>
       <c r="E37">
-        <f>COUNTIF($C$2:$C$38,C37)</f>
-        <v>5</v>
+        <f>COUNTIF($C$2:$C$45,C37)</f>
+        <v>6</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <f>(LOG(IF(B37=C37,D37,D37+E37)))/(F37*F37)</f>
-        <v>0.77815125038364363</v>
+        <v>0.27848583807670918</v>
       </c>
       <c r="H37">
         <f>G37/SUM($G$2:$G$38)</f>
-        <v>8.8116005616846252E-2</v>
+        <v>5.1333101161345131E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D38">
-        <f>COUNTIF($B$2:$B$38,B38)</f>
-        <v>1</v>
+        <f>COUNTIF($B$2:$B$45,B38)</f>
+        <v>15</v>
       </c>
       <c r="E38">
-        <f>COUNTIF($C$2:$C$38,C38)</f>
-        <v>5</v>
+        <f>COUNTIF($C$2:$C$45,C38)</f>
+        <v>3</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38">
         <f>(LOG(IF(B38=C38,D38,D38+E38)))/(F38*F38)</f>
-        <v>0.77815125038364363</v>
+        <v>0.29402281476392034</v>
       </c>
       <c r="H38">
         <f>G38/SUM($G$2:$G$38)</f>
-        <v>8.8116005616846252E-2</v>
+        <v>5.4197021285737175E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39">
+        <f>COUNTIF($B$2:$B$45,B39)</f>
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <f>COUNTIF($C$2:$C$45,C39)</f>
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f>(LOG(IF(B39=C39,D39,D39+E39)))/(F39*F39)</f>
+        <v>0.29402281476392034</v>
+      </c>
+      <c r="H39">
+        <f>G39/SUM($G$2:$G$38)</f>
+        <v>5.4197021285737175E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <f>COUNTIF($B$2:$B$45,B40)</f>
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <f>COUNTIF($C$2:$C$45,C40)</f>
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f>(LOG(IF(B40=C40,D40,D40+E40)))/(F40*F40)</f>
+        <v>0.29402281476392034</v>
+      </c>
+      <c r="H40">
+        <f>G40/SUM($G$2:$G$38)</f>
+        <v>5.4197021285737175E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <f>COUNTIF($B$2:$B$45,B41)</f>
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <f>COUNTIF($C$2:$C$45,C41)</f>
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f>(LOG(IF(B41=C41,D41,D41+E41)))/(F41*F41)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H41">
+        <f>G41/SUM($G$2:$G$38)</f>
+        <v>0.14343607966078303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <f>COUNTIF($B$2:$B$45,B42)</f>
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f>COUNTIF($C$2:$C$45,C42)</f>
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f>(LOG(IF(B42=C42,D42,D42+E42)))/(F42*F42)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H42">
+        <f>G42/SUM($G$2:$G$38)</f>
+        <v>0.14343607966078303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <f>COUNTIF($B$2:$B$45,B43)</f>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f>COUNTIF($C$2:$C$45,C43)</f>
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f>(LOG(IF(B43=C43,D43,D43+E43)))/(F43*F43)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H43">
+        <f>G43/SUM($G$2:$G$38)</f>
+        <v>0.14343607966078303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44">
+        <f>COUNTIF($B$2:$B$45,B44)</f>
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <f>COUNTIF($C$2:$C$45,C44)</f>
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f>(LOG(IF(B44=C44,D44,D44+E44)))/(F44*F44)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H44">
+        <f>G44/SUM($G$2:$G$38)</f>
+        <v>0.14343607966078303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45">
+        <f>COUNTIF($B$2:$B$45,B45)</f>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f>COUNTIF($C$2:$C$45,C45)</f>
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f>(LOG(IF(B45=C45,D45,D45+E45)))/(F45*F45)</f>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="H45">
+        <f>G45/SUM($G$2:$G$38)</f>
+        <v>0.14343607966078303</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H38">
-    <sortCondition ref="G2:G38"/>
-    <sortCondition ref="B2:B38"/>
-    <sortCondition ref="C2:C38"/>
-    <sortCondition ref="A2:A38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H45">
+    <sortCondition ref="G2:G45"/>
+    <sortCondition ref="B2:B45"/>
+    <sortCondition ref="C2:C45"/>
+    <sortCondition ref="A2:A45"/>
   </sortState>
-  <conditionalFormatting sqref="H2:H38">
+  <conditionalFormatting sqref="H2:H45">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1724,7 +1955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F38">
+  <conditionalFormatting sqref="F2:F45">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
